--- a/DateBase/orders/International Ever Green_2025-11-18.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-18.xlsx
@@ -1437,6 +1437,9 @@
       <c r="G2" t="str">
         <v>05101010101010101030305549310555611012658101010355851510751055101520510403030101010151530851581020201055106645520123108101255615102012151585751525151520555265553310405610</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
